--- a/util/6.테스트 시나리오_성명.xlsx
+++ b/util/6.테스트 시나리오_성명.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T_Development\d_Study\JSP\document\게시판과제\제출서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T_Development\d_Study\JSP\document\게시판 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EBF19A1-6C2D-466A-88CA-DAEFB6FBDED1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -19,17 +18,17 @@
     <sheet name="단위테스트시나리오테스트수행보고" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>InSoo Ku</author>
+    <author>pc06</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{9CB4B1F6-C49E-4396-8EE2-8C60F7ADA9B6}">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E65486E7-E65B-4AC3-9EA0-30F4E02E412E}">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{2E264D5F-F8BB-4AE5-98B1-D783ABBB4FA3}">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{6A1A5243-F36B-40EE-BAF2-037A8CDD2473}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{410271C9-B15F-4B34-BB74-5AC91472E06A}">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{4247432F-FB76-474A-9517-A687FA67BF40}">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{D0388C18-E6BA-4700-B7AA-D60FE72391E2}">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{BFC56F48-A6F3-4222-868A-C4A4974E030A}">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{224F17C1-9E48-4B68-A7E0-4AE6A9F6457E}">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{BE11B14D-90A4-471C-A04C-6C84FF93FBBE}">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -849,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{C6C7DE8D-E4B1-4C63-8FD7-C369A1D90E77}">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{65F4F198-0EFD-4136-B183-0D86AE554DC6}">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{C0A38B53-E35A-40ED-B1CC-397CDFE93F86}">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{B6BE0B07-5E8E-4C65-92F0-D12D290DE67C}">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1209,6 +1208,1094 @@
             <family val="2"/>
           </rPr>
           <t>editPostTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DR01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검색
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>selectAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DR01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentSetviceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검색
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>selectAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삽입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>insertAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삽입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>insertAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삽입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>insertAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">수정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>updateAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">수정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>updateAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DD01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삭제
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>deleteAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSA-DD01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AttachmentServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첨부파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삭제
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>deleteAttachmentTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-DR01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+selectCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-SR01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+selectCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A39" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-DC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삽입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+insertCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-SC01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삽입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+insertCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-DU01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+updateCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-SU01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">수정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>updateCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-DD01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsDaoTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+deleteCmtTest()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TSC-DR01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CommentsServiceTest
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>댓글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+deleteCmtTest()</t>
         </r>
       </text>
     </comment>
@@ -1217,7 +2304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="148">
   <si>
     <t>문서개정이력표</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -1688,11 +2775,141 @@
     <t>TSP-SR02</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>TSA-DR01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSED</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인수(2018.10.23)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-SR01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-02289: sequence does not exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘솔 로그 참조 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스 번호 문제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-01465: invalid hex number</t>
+  </si>
+  <si>
+    <t>BLOB  바이너리로 받아야한다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.23</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스 생성</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이너리 코드를 넣어 진행</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인수</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-DU01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-SC01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-DC01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSED</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-SU01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-DD01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-SD01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-DR01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-SR01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-DC01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-SC01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSA-DC02</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-DU01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-SU01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-DD01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSC-SD01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1704,7 +2921,7 @@
     <numFmt numFmtId="183" formatCode="&quot;₩&quot;#,##0.00;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
     <numFmt numFmtId="184" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1962,6 +3179,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2018,7 +3242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2330,8 +3554,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2377,7 +3610,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0"/>
@@ -2411,9 +3643,8 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2471,10 +3702,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2582,17 +3813,17 @@
     <xf numFmtId="0" fontId="34" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2700,64 +3931,68 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="24" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="56">
-    <cellStyle name="_x000a_386grabber=M" xfId="26" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_x000a_386grabber=M 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_x000a_386grabber=M 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_x000a_386grabber=M_요구사항정의서(기능)" xfId="29" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_요구사항추적매트릭스(CS)_보기" xfId="30" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_요구사항추적표(CS)_보기" xfId="31" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="_요구사항추적표(웹)_양식" xfId="32" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="_통합테스트빌드목록" xfId="33" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="_회의록관리대장_#.업무영역명" xfId="34" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="AeE­ [0]_PERSONAL" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="AeE­_PERSONAL" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="ALIGNMENT" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="C￥AØ_PERSONAL" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="category" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Comma [0]_MACRO1.XLM" xfId="35" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="comma zerodec" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="comma zerodec 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="comma zerodec 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="comma zerodec_요구사항정의서(기능)" xfId="38" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Currency1" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Currency1 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Currency1 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Currency1_요구사항정의서(기능)" xfId="41" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Dollar (zero dec)" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Dollar (zero dec) 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Dollar (zero dec) 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Dollar (zero dec)_요구사항정의서(기능)" xfId="44" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Followed Hyperlink_Issue Log" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Grey" xfId="10" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="HEADER" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Header1" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Header2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Hyperlink_Issue Log" xfId="54" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Input [yellow]" xfId="14" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Model" xfId="15" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal - Style1" xfId="16" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal - Style1 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal - Style1 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal - Style1_요구사항정의서(기능)" xfId="47" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal_Issue Log" xfId="55" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Percent [2]" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="subhead" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="메모 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="메모 3" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="스타일 1" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="콤마 [0]_95" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="콤마_95" xfId="21" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="표준 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="표준 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="표준 2 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="표준 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="표준 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="표준 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="표준_A2M_문서양식샘플" xfId="52" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+  <cellStyles count="54">
+    <cellStyle name="_x000a_386grabber=M" xfId="26"/>
+    <cellStyle name="_x000a_386grabber=M 2" xfId="27"/>
+    <cellStyle name="_x000a_386grabber=M 3" xfId="28"/>
+    <cellStyle name="_x000a_386grabber=M_요구사항정의서(기능)" xfId="29"/>
+    <cellStyle name="_요구사항추적매트릭스(CS)_보기" xfId="30"/>
+    <cellStyle name="_요구사항추적표(CS)_보기" xfId="31"/>
+    <cellStyle name="_요구사항추적표(웹)_양식" xfId="32"/>
+    <cellStyle name="_통합테스트빌드목록" xfId="33"/>
+    <cellStyle name="_회의록관리대장_#.업무영역명" xfId="34"/>
+    <cellStyle name="AeE­ [0]_PERSONAL" xfId="2"/>
+    <cellStyle name="AeE­_PERSONAL" xfId="3"/>
+    <cellStyle name="ALIGNMENT" xfId="4"/>
+    <cellStyle name="C￥AØ_PERSONAL" xfId="5"/>
+    <cellStyle name="category" xfId="6"/>
+    <cellStyle name="comma zerodec" xfId="7"/>
+    <cellStyle name="comma zerodec 2" xfId="35"/>
+    <cellStyle name="comma zerodec 3" xfId="36"/>
+    <cellStyle name="comma zerodec_요구사항정의서(기능)" xfId="37"/>
+    <cellStyle name="Currency1" xfId="8"/>
+    <cellStyle name="Currency1 2" xfId="38"/>
+    <cellStyle name="Currency1 3" xfId="39"/>
+    <cellStyle name="Currency1_요구사항정의서(기능)" xfId="40"/>
+    <cellStyle name="Dollar (zero dec)" xfId="9"/>
+    <cellStyle name="Dollar (zero dec) 2" xfId="41"/>
+    <cellStyle name="Dollar (zero dec) 3" xfId="42"/>
+    <cellStyle name="Dollar (zero dec)_요구사항정의서(기능)" xfId="43"/>
+    <cellStyle name="Followed Hyperlink_Issue Log" xfId="52"/>
+    <cellStyle name="Grey" xfId="10"/>
+    <cellStyle name="HEADER" xfId="11"/>
+    <cellStyle name="Header1" xfId="12"/>
+    <cellStyle name="Header2" xfId="13"/>
+    <cellStyle name="Hyperlink_Issue Log" xfId="53"/>
+    <cellStyle name="Input [yellow]" xfId="14"/>
+    <cellStyle name="Model" xfId="15"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="16"/>
+    <cellStyle name="Normal - Style1 2" xfId="44"/>
+    <cellStyle name="Normal - Style1 3" xfId="45"/>
+    <cellStyle name="Normal - Style1_요구사항정의서(기능)" xfId="46"/>
+    <cellStyle name="Percent [2]" xfId="17"/>
+    <cellStyle name="subhead" xfId="18"/>
+    <cellStyle name="메모 2" xfId="47"/>
+    <cellStyle name="메모 3" xfId="48"/>
+    <cellStyle name="스타일 1" xfId="19"/>
+    <cellStyle name="콤마 [0]_95" xfId="20"/>
+    <cellStyle name="콤마_95" xfId="21"/>
+    <cellStyle name="표준 2" xfId="22"/>
+    <cellStyle name="표준 2 2" xfId="50"/>
+    <cellStyle name="표준 2 3" xfId="23"/>
+    <cellStyle name="표준 2 3 2" xfId="24"/>
+    <cellStyle name="표준 3" xfId="1"/>
+    <cellStyle name="표준 3 2" xfId="49"/>
+    <cellStyle name="표준 4" xfId="25"/>
+    <cellStyle name="표준_A2M_문서양식샘플" xfId="51"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3793,7 +5028,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3868,23 +5103,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3920,23 +5138,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4112,28 +5313,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="57" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -4146,115 +5347,115 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="56"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="56"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4266,7 +5467,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4278,7 +5479,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4290,7 +5491,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -4302,91 +5503,91 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4398,7 +5599,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4410,7 +5611,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4422,7 +5623,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4434,7 +5635,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -4448,30 +5649,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -4480,6 +5657,30 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4489,19 +5690,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" customHeight="1">
+    <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -4511,7 +5712,7 @@
       <c r="E1" s="66"/>
       <c r="F1" s="67"/>
     </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1">
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
@@ -4523,7 +5724,7 @@
       <c r="E2" s="63"/>
       <c r="F2" s="64"/>
     </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1">
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +5742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1">
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4555,7 +5756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -4573,7 +5774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -4591,7 +5792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="60"/>
@@ -4599,7 +5800,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -4607,7 +5808,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -4615,7 +5816,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -4623,7 +5824,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -4631,7 +5832,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -4639,7 +5840,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -4647,7 +5848,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1">
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -4655,7 +5856,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -4663,7 +5864,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -4671,7 +5872,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -4679,7 +5880,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1">
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -4687,7 +5888,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -4695,7 +5896,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1">
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -4703,7 +5904,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -4711,7 +5912,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1">
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -4719,7 +5920,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="29.25" customHeight="1">
+    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -4727,7 +5928,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="29.25" customHeight="1">
+    <row r="24" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -4735,7 +5936,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="29.25" customHeight="1">
+    <row r="25" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -4743,7 +5944,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="29.25" customHeight="1">
+    <row r="26" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -4751,7 +5952,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1">
+    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -4759,7 +5960,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="29.25" customHeight="1">
+    <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -4767,7 +5968,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="29.25" customHeight="1">
+    <row r="29" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -4792,19 +5993,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>37</v>
       </c>
@@ -4818,7 +6019,7 @@
       <c r="I1" s="79"/>
       <c r="J1" s="80"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="81"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -4830,7 +6031,7 @@
       <c r="I2" s="82"/>
       <c r="J2" s="84"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
@@ -4856,7 +6057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
@@ -4882,7 +6083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
@@ -4912,7 +6113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24">
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>62</v>
       </c>
@@ -4942,7 +6143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1">
+    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="24"/>
@@ -4972,23 +6173,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37:F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="37" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="24.875" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="24.875" style="94" customWidth="1"/>
+    <col min="2" max="2" width="37" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="24.875" style="94" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +6204,7 @@
       <c r="J1" s="93"/>
       <c r="K1" s="93"/>
     </row>
-    <row r="2" spans="1:11" customFormat="1" ht="17.25" thickBot="1">
+    <row r="2" spans="1:11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -5016,7 +6217,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="93"/>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="17.25" thickBot="1">
+    <row r="3" spans="1:11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
         <v>23</v>
       </c>
@@ -5033,7 +6234,7 @@
       <c r="J3" s="92"/>
       <c r="K3" s="92"/>
     </row>
-    <row r="4" spans="1:11" customFormat="1" ht="17.25" thickBot="1">
+    <row r="4" spans="1:11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>19</v>
       </c>
@@ -5068,7 +6269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" thickBot="1">
+    <row r="5" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>76</v>
       </c>
@@ -5083,7 +6284,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" thickBot="1">
+    <row r="6" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>77</v>
       </c>
@@ -5098,7 +6299,7 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" thickBot="1">
+    <row r="7" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>78</v>
       </c>
@@ -5113,7 +6314,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" thickBot="1">
+    <row r="8" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>80</v>
       </c>
@@ -5128,7 +6329,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" thickBot="1">
+    <row r="9" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>79</v>
       </c>
@@ -5153,7 +6354,7 @@
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
     </row>
-    <row r="10" spans="1:11" ht="24.75" thickBot="1">
+    <row r="10" spans="1:11" s="46" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>89</v>
       </c>
@@ -5188,7 +6389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" thickBot="1">
+    <row r="11" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>90</v>
       </c>
@@ -5213,7 +6414,7 @@
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75" thickBot="1">
+    <row r="12" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
         <v>84</v>
       </c>
@@ -5248,7 +6449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" thickBot="1">
+    <row r="13" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51"/>
@@ -5261,7 +6462,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" thickBot="1">
+    <row r="14" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
@@ -5274,8 +6475,10 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:11" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
+        <v>147</v>
+      </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
@@ -5287,7 +6490,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" ht="36.75" thickBot="1">
+    <row r="16" spans="1:11" s="46" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
         <v>99</v>
       </c>
@@ -5322,7 +6525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" thickBot="1">
+    <row r="17" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50" t="s">
         <v>100</v>
       </c>
@@ -5347,7 +6550,7 @@
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" thickBot="1">
+    <row r="18" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50" t="s">
         <v>113</v>
       </c>
@@ -5364,7 +6567,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" thickBot="1">
+    <row r="19" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>114</v>
       </c>
@@ -5381,7 +6584,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" ht="24.75" thickBot="1">
+    <row r="20" spans="1:12" s="46" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
         <v>102</v>
       </c>
@@ -5416,7 +6619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" thickBot="1">
+    <row r="21" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
         <v>108</v>
       </c>
@@ -5441,7 +6644,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" ht="12.75" thickBot="1">
+    <row r="22" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
         <v>109</v>
       </c>
@@ -5466,7 +6669,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" ht="12.75" thickBot="1">
+    <row r="23" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
         <v>110</v>
       </c>
@@ -5491,7 +6694,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" ht="12.75" thickBot="1">
+    <row r="24" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
         <v>111</v>
       </c>
@@ -5516,7 +6719,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" thickBot="1">
+    <row r="25" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
         <v>112</v>
       </c>
@@ -5541,8 +6744,10 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A26" s="50"/>
+    <row r="26" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="50" t="s">
+        <v>145</v>
+      </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -5553,6 +6758,459 @@
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="95"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="95"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="50">
+        <v>1</v>
+      </c>
+      <c r="K29" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" s="95"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="50">
+        <v>1</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="95"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="95"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="95"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="95"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="95"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="95"/>
+    </row>
+    <row r="36" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+    </row>
+    <row r="39" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="41" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+    </row>
+    <row r="42" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+    </row>
+    <row r="43" spans="1:12" s="46" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
